--- a/documentation/calibration acquisition TWA.xlsx
+++ b/documentation/calibration acquisition TWA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="http://betelgeuse.intra.cea.fr:8081/alfresco/aos/SI²P/GSCP GEDI/09-Contrats Eurofusion/04 Enabling Research -lpp-erm-kms-03/2-Dossiers techniques/6-mesures/calibration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JH218595\Documents\TWAmockup\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AD8310 test1" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="graphiques" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="85">
   <si>
     <t>V1</t>
   </si>
@@ -377,6 +376,36 @@
   <si>
     <t>Mhz</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>V7p</t>
+  </si>
+  <si>
+    <t>V1p</t>
+  </si>
+  <si>
+    <t>V2p</t>
+  </si>
+  <si>
+    <t>V3p</t>
+  </si>
+  <si>
+    <t>V4p</t>
+  </si>
+  <si>
+    <t>V5p</t>
+  </si>
+  <si>
+    <t>V6p</t>
+  </si>
+  <si>
+    <t>REG LIN</t>
+  </si>
 </sst>
 </file>
 
@@ -435,12 +464,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="31">
@@ -841,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,6 +1027,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1439,7 +1481,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1936,7 +1977,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2059,7 +2099,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2140,7 +2179,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2261,7 +2299,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3675,7 +3712,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3798,7 +3834,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3979,7 +4014,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5016,7 +5050,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5134,7 +5167,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8660,6 +8692,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8745,69 +8778,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.49920268312285687"/>
-                  <c:y val="-6.5710758757894991E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Vp1= 41,14518x - 91,91094</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -8816,22 +8787,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.4729999999999999</c:v>
+                  <c:v>2.5510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.23</c:v>
+                  <c:v>2.3039999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9810000000000001</c:v>
+                  <c:v>2.0609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7430000000000001</c:v>
+                  <c:v>1.8240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5049999999999999</c:v>
+                  <c:v>1.579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2589999999999999</c:v>
+                  <c:v>1.3360000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8920,69 +8891,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.53399855201841406"/>
-                  <c:y val="2.5927444001006723E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Vp3 = 40,754x - 90,55</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -8991,22 +8900,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.464</c:v>
+                  <c:v>2.5449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2189999999999999</c:v>
+                  <c:v>2.2959999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.964</c:v>
+                  <c:v>2.048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.726</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4870000000000001</c:v>
+                  <c:v>1.5640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.238</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9095,69 +9004,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.54668720909428847"/>
-                  <c:y val="7.1159529716319711E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
-                      <a:t>Vp4 = 41,516x - 93,958</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="fr-FR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -9166,22 +9013,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>2.5840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>2.339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0110000000000001</c:v>
+                  <c:v>2.0979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.778</c:v>
+                  <c:v>1.8640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.542</c:v>
+                  <c:v>1.6220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.296</c:v>
+                  <c:v>1.3819999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9270,69 +9117,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.55708523716955749"/>
-                  <c:y val="0.18561919486091635"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
-                      <a:t>Vp5 = 40,798x - 93,086</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="fr-FR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -9341,22 +9126,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.52</c:v>
+                  <c:v>2.6040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2789999999999999</c:v>
+                  <c:v>2.3580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.028</c:v>
+                  <c:v>2.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7889999999999999</c:v>
+                  <c:v>1.8779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5469999999999999</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.296</c:v>
+                  <c:v>1.383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9445,69 +9230,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.55739411518776949"/>
-                  <c:y val="0.23564927671712269"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
-                      <a:t>Vp6 = 41,11x - 93,305</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="fr-FR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -9516,22 +9239,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5089999999999999</c:v>
+                  <c:v>2.589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.266</c:v>
+                  <c:v>2.3410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0150000000000001</c:v>
+                  <c:v>2.097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.78</c:v>
+                  <c:v>1.861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5409999999999999</c:v>
+                  <c:v>1.6160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2929999999999999</c:v>
+                  <c:v>1.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9620,69 +9343,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.55632045816288034"/>
-                  <c:y val="0.28251968503937008"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
-                      <a:t>Vp7 = 40,737x - 92,731</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="fr-FR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -9691,22 +9352,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5139999999999998</c:v>
+                  <c:v>2.593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.274</c:v>
+                  <c:v>2.347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.024</c:v>
+                  <c:v>2.105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7829999999999999</c:v>
+                  <c:v>1.8660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.54</c:v>
+                  <c:v>1.617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2889999999999999</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9803,12 +9464,125 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AD8310 final'!$D$11:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3560000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AD8310 final'!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-217A-4E1D-9CD9-04A0786DA227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>V7bis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.54512743072260961"/>
-                  <c:y val="-2.2857656491568693E-2"/>
+                  <c:x val="-4.2250576824395127E-2"/>
+                  <c:y val="0.30767818406260861"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9819,9 +9593,8 @@
                     <a:pPr>
                       <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="50000"/>
                           </a:schemeClr>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
@@ -9830,10 +9603,22 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
-                      <a:t>Vp2 = 40,699x - 91,764</a:t>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>V7pbis = 40,851x - 96,176</a:t>
                     </a:r>
-                    <a:endParaRPr lang="fr-FR"/>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9852,9 +9637,8 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
@@ -9869,28 +9653,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'AD8310 final'!$D$11:$D$16</c:f>
+              <c:f>'AD8310 final'!$J$11:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.4969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.518</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2689999999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9924,7 +9690,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-217A-4E1D-9CD9-04A0786DA227}"/>
+              <c16:uniqueId val="{00000000-6ACE-4C93-B2B3-372DDE421773}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9987,6 +9753,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10104,6 +9871,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10472,22 +10240,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.4729999999999999</c:v>
+                  <c:v>2.5510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.23</c:v>
+                  <c:v>2.3039999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9810000000000001</c:v>
+                  <c:v>2.0609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7430000000000001</c:v>
+                  <c:v>1.8240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5049999999999999</c:v>
+                  <c:v>1.579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2589999999999999</c:v>
+                  <c:v>1.3360000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10645,22 +10413,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.4969999999999999</c:v>
+                  <c:v>2.585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25</c:v>
+                  <c:v>2.335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9990000000000001</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7589999999999999</c:v>
+                  <c:v>1.851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.518</c:v>
+                  <c:v>1.6020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2689999999999999</c:v>
+                  <c:v>1.3560000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10818,22 +10586,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.464</c:v>
+                  <c:v>2.5449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2189999999999999</c:v>
+                  <c:v>2.2959999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.964</c:v>
+                  <c:v>2.048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.726</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4870000000000001</c:v>
+                  <c:v>1.5640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.238</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10991,22 +10759,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>2.5840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>2.339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0110000000000001</c:v>
+                  <c:v>2.0979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.778</c:v>
+                  <c:v>1.8640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.542</c:v>
+                  <c:v>1.6220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.296</c:v>
+                  <c:v>1.3819999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11164,22 +10932,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.52</c:v>
+                  <c:v>2.6040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2789999999999999</c:v>
+                  <c:v>2.3580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.028</c:v>
+                  <c:v>2.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7889999999999999</c:v>
+                  <c:v>1.8779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5469999999999999</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.296</c:v>
+                  <c:v>1.383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11337,22 +11105,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5089999999999999</c:v>
+                  <c:v>2.589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.266</c:v>
+                  <c:v>2.3410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0150000000000001</c:v>
+                  <c:v>2.097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.78</c:v>
+                  <c:v>1.861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5409999999999999</c:v>
+                  <c:v>1.6160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2929999999999999</c:v>
+                  <c:v>1.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11505,22 +11273,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5139999999999998</c:v>
+                  <c:v>2.593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.274</c:v>
+                  <c:v>2.347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.024</c:v>
+                  <c:v>2.105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7829999999999999</c:v>
+                  <c:v>1.8660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.54</c:v>
+                  <c:v>1.617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2889999999999999</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11590,6 +11358,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11707,6 +11476,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11907,7 +11677,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AD8310 final'!$C$48</c:f>
+              <c:f>'AD8310 final'!$C$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11940,7 +11710,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AD8310 final'!$B$49:$B$54</c:f>
+              <c:f>'AD8310 final'!$B$50:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11967,7 +11737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AD8310 final'!$C$49:$C$54</c:f>
+              <c:f>'AD8310 final'!$C$50:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12004,7 +11774,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AD8310 final'!$D$48</c:f>
+              <c:f>'AD8310 final'!$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12037,7 +11807,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AD8310 final'!$B$49:$B$54</c:f>
+              <c:f>'AD8310 final'!$B$50:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12064,7 +11834,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AD8310 final'!$D$49:$D$54</c:f>
+              <c:f>'AD8310 final'!$D$50:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12101,7 +11871,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AD8310 final'!$E$48</c:f>
+              <c:f>'AD8310 final'!$E$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12134,7 +11904,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AD8310 final'!$B$49:$B$54</c:f>
+              <c:f>'AD8310 final'!$B$50:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12161,7 +11931,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AD8310 final'!$E$49:$E$54</c:f>
+              <c:f>'AD8310 final'!$E$50:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -19054,13 +18824,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>282612</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:colOff>158787</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19092,13 +18862,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>239720</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:colOff>115895</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19128,16 +18898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>909637</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19166,7 +18936,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19190,13 +18960,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19245,13 +19015,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>282086</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>123092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>131884</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19998,28 +19768,28 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="2"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="54"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
       <c r="T9" s="2"/>
       <c r="Y9" s="1">
         <v>1.4690000000000001</v>
@@ -20432,28 +20202,28 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="2"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="57"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -20725,27 +20495,27 @@
     <row r="28" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="57"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -21443,28 +21213,28 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="2"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="54"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
       <c r="T9" s="2"/>
       <c r="Y9" s="1">
         <v>1.4690000000000001</v>
@@ -21877,28 +21647,28 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="2"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="57"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -22170,27 +21940,27 @@
     <row r="28" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="57"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -22711,10 +22481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC61"/>
+  <dimension ref="A1:BC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22724,10 +22494,13 @@
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
     <col min="4" max="6" width="5.7109375" style="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.7109375" style="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" style="1"/>
     <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="1" customWidth="1"/>
-    <col min="13" max="21" width="5.7109375" style="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15" max="21" width="5.7109375" style="1"/>
     <col min="22" max="23" width="9.28515625" style="1" customWidth="1"/>
     <col min="24" max="26" width="5.7109375" style="1"/>
     <col min="27" max="27" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -22943,20 +22716,26 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="K9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>76</v>
+      </c>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
@@ -22997,9 +22776,16 @@
         <v>20</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="array" ref="L10:M10">LINEST(A11:A16,C11:C16)</f>
+        <v>41.126559564087351</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-95.056675286573025</v>
+      </c>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
@@ -23020,30 +22806,37 @@
         <v>0.97839674194330639</v>
       </c>
       <c r="C11" s="3">
-        <v>2.4729999999999999</v>
+        <v>2.5510000000000002</v>
       </c>
       <c r="D11" s="3">
-        <v>2.4969999999999999</v>
+        <v>2.585</v>
       </c>
       <c r="E11" s="3">
-        <v>2.464</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="F11" s="3">
-        <v>2.5</v>
+        <v>2.5840000000000001</v>
       </c>
       <c r="G11" s="3">
-        <v>2.52</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="H11" s="3">
-        <v>2.5089999999999999</v>
+        <v>2.589</v>
       </c>
       <c r="I11" s="6">
-        <v>2.5139999999999998</v>
+        <v>2.593</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="array" ref="L11:M11">LINEST(A11:A16,D11:D16)</f>
+        <v>40.666208468173281</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-95.27398631422335</v>
+      </c>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
@@ -23064,30 +22857,37 @@
         <v>0.30904021539524296</v>
       </c>
       <c r="C12" s="3">
-        <v>2.23</v>
+        <v>2.3039999999999998</v>
       </c>
       <c r="D12" s="3">
-        <v>2.25</v>
+        <v>2.335</v>
       </c>
       <c r="E12" s="3">
-        <v>2.2189999999999999</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="F12" s="3">
-        <v>2.2599999999999998</v>
+        <v>2.339</v>
       </c>
       <c r="G12" s="3">
-        <v>2.2789999999999999</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="H12" s="16">
-        <v>2.266</v>
+        <v>2.3410000000000002</v>
       </c>
       <c r="I12" s="6">
-        <v>2.274</v>
+        <v>2.347</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="array" ref="L12:M12">LINEST(A11:A16,E11:E16)</f>
+        <v>40.780361747229861</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-93.894821686360586</v>
+      </c>
       <c r="N12" s="40"/>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
@@ -23108,30 +22908,37 @@
         <v>9.7614649188061467E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>1.9810000000000001</v>
+        <v>2.0609999999999999</v>
       </c>
       <c r="D13" s="3">
-        <v>1.9990000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="E13" s="3">
-        <v>1.964</v>
+        <v>2.048</v>
       </c>
       <c r="F13" s="3">
-        <v>2.0110000000000001</v>
+        <v>2.0979999999999999</v>
       </c>
       <c r="G13" s="3">
-        <v>2.028</v>
+        <v>2.1160000000000001</v>
       </c>
       <c r="H13" s="3">
-        <v>2.0150000000000001</v>
+        <v>2.097</v>
       </c>
       <c r="I13" s="6">
-        <v>2.024</v>
+        <v>2.105</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="K13" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="array" ref="L13:M13">LINEST(A11:A16,F11:F16)</f>
+        <v>41.577101034284283</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-97.553359032767631</v>
+      </c>
       <c r="N13" s="40"/>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
@@ -23152,30 +22959,37 @@
         <v>3.086846244325802E-2</v>
       </c>
       <c r="C14" s="3">
-        <v>1.7430000000000001</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="D14" s="3">
-        <v>1.7589999999999999</v>
+        <v>1.851</v>
       </c>
       <c r="E14" s="3">
-        <v>1.726</v>
+        <v>1.81</v>
       </c>
       <c r="F14" s="3">
-        <v>1.778</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="G14" s="3">
-        <v>1.7889999999999999</v>
+        <v>1.8779999999999999</v>
       </c>
       <c r="H14" s="15">
-        <v>1.78</v>
+        <v>1.861</v>
       </c>
       <c r="I14" s="6">
-        <v>1.7829999999999999</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="K14" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="array" ref="L14:M14">LINEST(A11:A16,G11:G16)</f>
+        <v>40.932591500704447</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-96.822031278655246</v>
+      </c>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
@@ -23196,31 +23010,38 @@
         <v>9.7727096923800067E-3</v>
       </c>
       <c r="C15" s="3">
-        <v>1.5049999999999999</v>
+        <v>1.579</v>
       </c>
       <c r="D15" s="3">
-        <v>1.518</v>
+        <v>1.6020000000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>1.4870000000000001</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="F15" s="3">
-        <v>1.542</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="G15" s="3">
-        <v>1.5469999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="H15" s="3">
-        <v>1.5409999999999999</v>
+        <v>1.6160000000000001</v>
       </c>
       <c r="I15" s="6">
-        <v>1.54</v>
+        <v>1.617</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
+      <c r="K15" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="array" ref="L15:M15">LINEST(A11:A16,H11:H16)</f>
+        <v>41.155371468397128</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-96.64910961218159</v>
+      </c>
+      <c r="N15" s="52"/>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
@@ -23238,30 +23059,37 @@
         <v>3.1623868674688677E-3</v>
       </c>
       <c r="C16" s="8">
-        <v>1.2589999999999999</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="D16" s="8">
-        <v>1.2689999999999999</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="E16" s="8">
-        <v>1.238</v>
+        <v>1.32</v>
       </c>
       <c r="F16" s="8">
-        <v>1.296</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="G16" s="8">
-        <v>1.296</v>
+        <v>1.383</v>
       </c>
       <c r="H16" s="8">
-        <v>1.2929999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="I16" s="9">
-        <v>1.2889999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="K16" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="array" ref="L16:M16">LINEST(A11:A16,I11:I16)</f>
+        <v>40.851179506258561</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-96.176222294244056</v>
+      </c>
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
       <c r="P16" s="40"/>
@@ -23283,58 +23111,15 @@
       <c r="S17" s="40"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -23392,45 +23177,78 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="2"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="2"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -23610,6 +23428,7 @@
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
@@ -23662,43 +23481,43 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
       <c r="K33" s="40"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
       <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
@@ -23859,12 +23678,6 @@
       <c r="Q42" s="40"/>
       <c r="R42" s="40"/>
       <c r="S42" s="40"/>
-      <c r="Z42" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
@@ -23885,23 +23698,37 @@
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
       <c r="S43" s="40"/>
-      <c r="Z43" s="1">
-        <v>-32.6</v>
-      </c>
-      <c r="AA43" s="24">
-        <f>41.35328*Y9-95.02144</f>
-        <v>-95.021439999999998</v>
+      <c r="Z43" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
       <c r="Z44" s="1">
-        <v>-16</v>
+        <v>-32.6</v>
       </c>
       <c r="AA44" s="24">
-        <f>41.35328*Y10-95.02144</f>
+        <f>41.35328*Y9-95.02144</f>
         <v>-95.021439999999998</v>
       </c>
     </row>
@@ -23909,69 +23736,58 @@
       <c r="U45" s="40"/>
       <c r="V45" s="40"/>
       <c r="W45" s="40"/>
-      <c r="AA45" s="24"/>
+      <c r="Z45" s="1">
+        <v>-16</v>
+      </c>
+      <c r="AA45" s="24">
+        <f>41.35328*Y10-95.02144</f>
+        <v>-95.021439999999998</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="40"/>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="U46" s="40"/>
       <c r="V46" s="40"/>
       <c r="W46" s="40"/>
+      <c r="AA46" s="24"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="40"/>
       <c r="U47" s="40"/>
       <c r="V47" s="40"/>
       <c r="W47" s="40"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="3">
-        <v>40</v>
-      </c>
-      <c r="D48" s="3">
-        <v>55</v>
-      </c>
-      <c r="E48" s="6">
-        <v>65</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="40"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
       <c r="U48" s="40"/>
       <c r="V48" s="40"/>
       <c r="W48" s="40"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="47">
-        <v>9.81</v>
+      <c r="B49" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C49" s="3">
-        <v>2.4710000000000001</v>
+        <v>40</v>
       </c>
       <c r="D49" s="3">
-        <v>2.464</v>
+        <v>55</v>
       </c>
       <c r="E49" s="6">
-        <v>2.4609999999999999</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="49">
-        <f t="shared" ref="G49:G54" si="1">STDEV(C49:E49)</f>
-        <v>5.1316014394469974E-3</v>
+        <v>65</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="H49" s="40"/>
       <c r="U49" s="40"/>
@@ -23980,21 +23796,21 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="47">
-        <v>-0.2</v>
+        <v>9.81</v>
       </c>
       <c r="C50" s="3">
-        <v>2.2229999999999999</v>
+        <v>2.4710000000000001</v>
       </c>
       <c r="D50" s="3">
-        <v>2.2189999999999999</v>
+        <v>2.464</v>
       </c>
       <c r="E50" s="6">
-        <v>2.2160000000000002</v>
+        <v>2.4609999999999999</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="49">
-        <f t="shared" si="1"/>
-        <v>3.5118845842840914E-3</v>
+        <f t="shared" ref="G50:G55" si="1">STDEV(C50:E50)</f>
+        <v>5.1316014394469974E-3</v>
       </c>
       <c r="H50" s="40"/>
       <c r="U50" s="40"/>
@@ -24003,21 +23819,21 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="47">
-        <v>-10.210000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="C51" s="3">
-        <v>1.9710000000000001</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="D51" s="3">
-        <v>1.964</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="E51" s="6">
-        <v>1.9610000000000001</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="49">
         <f t="shared" si="1"/>
-        <v>5.1316014394469037E-3</v>
+        <v>3.5118845842840914E-3</v>
       </c>
       <c r="H51" s="40"/>
       <c r="U51" s="40"/>
@@ -24026,21 +23842,21 @@
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="47">
-        <v>-20.21</v>
+        <v>-10.210000000000001</v>
       </c>
       <c r="C52" s="3">
-        <v>1.732</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="D52" s="3">
-        <v>1.726</v>
+        <v>1.964</v>
       </c>
       <c r="E52" s="6">
-        <v>1.724</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="49">
         <f t="shared" si="1"/>
-        <v>4.1633319989322687E-3</v>
+        <v>5.1316014394469037E-3</v>
       </c>
       <c r="H52" s="40"/>
       <c r="U52" s="40"/>
@@ -24049,59 +23865,82 @@
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="47">
-        <v>-30.2</v>
+        <v>-20.21</v>
       </c>
       <c r="C53" s="3">
-        <v>1.49</v>
+        <v>1.732</v>
       </c>
       <c r="D53" s="3">
-        <v>1.4870000000000001</v>
+        <v>1.726</v>
       </c>
       <c r="E53" s="6">
-        <v>1.4850000000000001</v>
+        <v>1.724</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="49">
         <f t="shared" si="1"/>
-        <v>2.5166114784235267E-3</v>
+        <v>4.1633319989322687E-3</v>
       </c>
       <c r="H53" s="40"/>
       <c r="U53" s="40"/>
       <c r="V53" s="40"/>
       <c r="W53" s="40"/>
     </row>
-    <row r="54" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="48">
-        <v>-40</v>
-      </c>
-      <c r="C54" s="8">
-        <v>1.244</v>
-      </c>
-      <c r="D54" s="8">
-        <v>1.238</v>
-      </c>
-      <c r="E54" s="9">
-        <v>1.236</v>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="47">
+        <v>-30.2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1.4850000000000001</v>
       </c>
       <c r="F54" s="40"/>
       <c r="G54" s="49">
         <f t="shared" si="1"/>
+        <v>2.5166114784235267E-3</v>
+      </c>
+      <c r="H54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+    </row>
+    <row r="55" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="48">
+        <v>-40</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1.244</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1.238</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1.236</v>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="49">
+        <f t="shared" si="1"/>
         <v>4.1633319989322687E-3</v>
       </c>
-      <c r="H54" s="40"/>
+      <c r="H55" s="40"/>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D61" s="1">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
         <f>5/24</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -24113,7 +23952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K55" sqref="K55:L63"/>
     </sheetView>
   </sheetViews>
@@ -26492,27 +26331,27 @@
     <row r="53" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="54"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="57"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="52" t="s">
+      <c r="L54" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="54"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="57"/>
       <c r="AX54" s="2"/>
       <c r="AY54" s="2"/>
       <c r="AZ54" s="2"/>
@@ -26933,27 +26772,27 @@
     <row r="65" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="54"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="57"/>
       <c r="K66" s="10"/>
-      <c r="L66" s="52" t="s">
+      <c r="L66" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="54"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="57"/>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -27413,11 +27252,11 @@
       <c r="R78" s="40"/>
       <c r="S78" s="40"/>
       <c r="X78" s="38"/>
-      <c r="Y78" s="55" t="s">
+      <c r="Y78" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="Z78" s="55"/>
-      <c r="AA78" s="55"/>
+      <c r="Z78" s="58"/>
+      <c r="AA78" s="58"/>
       <c r="AB78" s="21" t="s">
         <v>64</v>
       </c>
@@ -27670,24 +27509,24 @@
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
       <c r="J84" s="40"/>
       <c r="K84" s="40"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="55"/>
-      <c r="R84" s="55"/>
-      <c r="S84" s="55"/>
+      <c r="L84" s="58"/>
+      <c r="M84" s="58"/>
+      <c r="N84" s="58"/>
+      <c r="O84" s="58"/>
+      <c r="P84" s="58"/>
+      <c r="Q84" s="58"/>
+      <c r="R84" s="58"/>
+      <c r="S84" s="58"/>
       <c r="X84" s="38"/>
       <c r="Y84" s="3">
         <v>1.1020000000000001</v>
@@ -27907,11 +27746,11 @@
       <c r="R89" s="40"/>
       <c r="S89" s="40"/>
       <c r="X89" s="38"/>
-      <c r="Y89" s="55" t="s">
+      <c r="Y89" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="Z89" s="55"/>
-      <c r="AA89" s="55"/>
+      <c r="Z89" s="58"/>
+      <c r="AA89" s="58"/>
       <c r="AB89" s="42" t="s">
         <v>64</v>
       </c>
@@ -28174,24 +28013,24 @@
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="55"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="58"/>
       <c r="J96" s="40"/>
       <c r="K96" s="40"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="55"/>
-      <c r="N96" s="55"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="55"/>
-      <c r="R96" s="55"/>
-      <c r="S96" s="55"/>
+      <c r="L96" s="58"/>
+      <c r="M96" s="58"/>
+      <c r="N96" s="58"/>
+      <c r="O96" s="58"/>
+      <c r="P96" s="58"/>
+      <c r="Q96" s="58"/>
+      <c r="R96" s="58"/>
+      <c r="S96" s="58"/>
       <c r="X96" s="38"/>
       <c r="Y96" s="3">
         <v>1.2310000000000001</v>
@@ -28349,11 +28188,11 @@
       <c r="R100" s="40"/>
       <c r="S100" s="40"/>
       <c r="X100" s="38"/>
-      <c r="Y100" s="55" t="s">
+      <c r="Y100" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="Z100" s="55"/>
-      <c r="AA100" s="55"/>
+      <c r="Z100" s="58"/>
+      <c r="AA100" s="58"/>
       <c r="AB100" s="42" t="s">
         <v>64</v>
       </c>
@@ -28714,11 +28553,11 @@
     <row r="115" spans="24:40" x14ac:dyDescent="0.25">
       <c r="X115" s="38"/>
       <c r="Y115" s="2"/>
-      <c r="Z115" s="55" t="s">
+      <c r="Z115" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="AA115" s="55"/>
-      <c r="AB115" s="55"/>
+      <c r="AA115" s="58"/>
+      <c r="AB115" s="58"/>
       <c r="AC115" s="21" t="s">
         <v>64</v>
       </c>
@@ -28726,13 +28565,13 @@
         <v>64</v>
       </c>
       <c r="AE115" s="39"/>
-      <c r="AH115" s="56" t="s">
+      <c r="AH115" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AI115" s="56"/>
-      <c r="AJ115" s="56"/>
-      <c r="AK115" s="56"/>
-      <c r="AL115" s="56"/>
+      <c r="AI115" s="59"/>
+      <c r="AJ115" s="59"/>
+      <c r="AK115" s="59"/>
+      <c r="AL115" s="59"/>
       <c r="AM115" s="21" t="s">
         <v>64</v>
       </c>
@@ -29170,11 +29009,11 @@
     <row r="126" spans="24:40" x14ac:dyDescent="0.25">
       <c r="X126" s="38"/>
       <c r="Y126" s="2"/>
-      <c r="Z126" s="55" t="s">
+      <c r="Z126" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="AA126" s="55"/>
-      <c r="AB126" s="55"/>
+      <c r="AA126" s="58"/>
+      <c r="AB126" s="58"/>
       <c r="AC126" s="21" t="s">
         <v>64</v>
       </c>
@@ -29182,13 +29021,13 @@
         <v>64</v>
       </c>
       <c r="AE126" s="39"/>
-      <c r="AH126" s="56" t="s">
+      <c r="AH126" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AI126" s="56"/>
-      <c r="AJ126" s="56"/>
-      <c r="AK126" s="56"/>
-      <c r="AL126" s="56"/>
+      <c r="AI126" s="59"/>
+      <c r="AJ126" s="59"/>
+      <c r="AK126" s="59"/>
+      <c r="AL126" s="59"/>
       <c r="AM126" s="21" t="s">
         <v>64</v>
       </c>
@@ -29626,11 +29465,11 @@
     <row r="137" spans="24:40" x14ac:dyDescent="0.25">
       <c r="X137" s="38"/>
       <c r="Y137" s="2"/>
-      <c r="Z137" s="55" t="s">
+      <c r="Z137" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA137" s="55"/>
-      <c r="AB137" s="55"/>
+      <c r="AA137" s="58"/>
+      <c r="AB137" s="58"/>
       <c r="AC137" s="21" t="s">
         <v>64</v>
       </c>
@@ -29638,13 +29477,13 @@
         <v>64</v>
       </c>
       <c r="AE137" s="39"/>
-      <c r="AH137" s="56" t="s">
+      <c r="AH137" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AI137" s="56"/>
-      <c r="AJ137" s="56"/>
-      <c r="AK137" s="56"/>
-      <c r="AL137" s="56"/>
+      <c r="AI137" s="59"/>
+      <c r="AJ137" s="59"/>
+      <c r="AK137" s="59"/>
+      <c r="AL137" s="59"/>
       <c r="AM137" s="21" t="s">
         <v>64</v>
       </c>
@@ -30134,15 +29973,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publication_x0020_status xmlns="http://schemas.microsoft.com/sharepoint/v3">draft</Publication_x0020_status>
@@ -30154,7 +29984,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Content" ma:contentTypeID="0x0101006FD11A9A970144EB8A5076663155FC5A" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="bb5b5228937c0a7a40ef1f2f196751c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83d6fdb541a1a26bba4d5e73d0ebf361" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30311,31 +30141,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1CB941F-99CF-4119-A5D3-F514A0889D5F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B25B73-8F15-4481-B061-5CB5B7850D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B25B73-8F15-4481-B061-5CB5B7850D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD4E7E14-8EED-4B84-9E0C-E4467C911A5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30351,4 +30182,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1CB941F-99CF-4119-A5D3-F514A0889D5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>